--- a/Auswertung.xlsx
+++ b/Auswertung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anouk/Documents/Maturarbeit/Maturarbeit_Anhang/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023A1A31-FC06-3841-AECF-AF4070360E7F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F617FA77-C9C8-9C40-924D-0655C075AF15}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="30080" windowHeight="22940" activeTab="1" xr2:uid="{ABF68825-397D-7141-9FEA-F7406D2D7908}"/>
   </bookViews>
@@ -2725,8 +2725,8 @@
   </sheetPr>
   <dimension ref="B11:AD104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="H23" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
